--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/20/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.977399999999997</v>
+        <v>-5.873799999999997</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.745600000000003</v>
+        <v>-7.846900000000004</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.40810000000001</v>
+        <v>12.46940000000001</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.367299999999995</v>
+        <v>-8.575399999999995</v>
       </c>
       <c r="E7" t="n">
-        <v>12.1513</v>
+        <v>11.7872</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.491099999999996</v>
+        <v>-8.694799999999994</v>
       </c>
       <c r="E8" t="n">
-        <v>12.20830000000001</v>
+        <v>12.2753</v>
       </c>
     </row>
     <row r="9">
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.92480000000001</v>
+        <v>-13.32430000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -638,10 +638,10 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.51250000000002</v>
+        <v>-14.76230000000002</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.252100000000002</v>
+        <v>-8.153000000000006</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.721200000000001</v>
+        <v>-8.564099999999998</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -689,7 +689,7 @@
         <v>5.53</v>
       </c>
       <c r="C15" t="n">
-        <v>-11.4456</v>
+        <v>-11.9718</v>
       </c>
       <c r="D15" t="n">
         <v>-6.43</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.6365</v>
+        <v>12.5675</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.8173</v>
+        <v>12.63279999999999</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.297000000000002</v>
+        <v>-8.342999999999996</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.90979999999999</v>
+        <v>12.77189999999999</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.3036</v>
+        <v>13.16670000000001</v>
       </c>
     </row>
   </sheetData>
